--- a/CraftEquipEncFix/package/LangMod/CN/CraftEquipEncFix_SourceCardCN.xlsx
+++ b/CraftEquipEncFix/package/LangMod/CN/CraftEquipEncFix_SourceCardCN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12525" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12525" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Thing" sheetId="9" r:id="rId1"/>
@@ -241,7 +241,7 @@
     <t>anvil</t>
   </si>
   <si>
-    <t>dagger,dagger</t>
+    <t>dagger,dagger,dagger</t>
   </si>
   <si>
     <t>iron</t>
@@ -262,7 +262,7 @@
     <t>4,0</t>
   </si>
   <si>
-    <t>Inui_CCEF</t>
+    <t>Inui_CCEF,allowop,percentenchant\10,percentenchant\15,percentenchant\15</t>
   </si>
   <si>
     <t>小型の剣だ。</t>
@@ -1706,8 +1706,8 @@
   <sheetPr/>
   <dimension ref="A1:AZ44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AJ9" sqref="AJ9"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AT4" sqref="AT4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5"/>
@@ -4361,8 +4361,8 @@
   <sheetPr/>
   <dimension ref="A1:BE4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelRow="3"/>
@@ -4800,7 +4800,7 @@
         <v>1</v>
       </c>
       <c r="P4" s="7">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="7">
         <v>50</v>
